--- a/init/yan.xlsx
+++ b/init/yan.xlsx
@@ -3692,8 +3692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
